--- a/litsearch.xlsx
+++ b/litsearch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Guassi Moreira\Documents\mh2005_replisim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jguassimoreira/Documents/mh2005_replisim/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF8A220-7B26-4D42-B548-A96081DA58C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="6180" yWindow="1580" windowWidth="19440" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,18 +24,27 @@
     <sheet name="missing_dat" sheetId="4" r:id="rId9"/>
     <sheet name="icc" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="277">
   <si>
     <t>L1 Sample Size</t>
   </si>
@@ -894,23 +904,11 @@
   <si>
     <t>miscite</t>
   </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1062,7 +1060,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,21 +1090,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1388,26 +1386,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="N1:N1048576 A1:A1048576"/>
+    <sheetView topLeftCell="B90" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="71.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="11" max="11" width="71.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="32.5" customWidth="1"/>
     <col min="14" max="14" width="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -1535,7 +1533,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
@@ -1579,7 +1577,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -1621,7 +1619,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1663,7 +1661,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +1703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
@@ -1749,7 +1747,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -1833,7 +1831,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>102</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1921,7 +1919,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -2006,7 +2004,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2047,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -2134,7 +2132,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>112</v>
       </c>
@@ -2218,7 +2216,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>112</v>
       </c>
@@ -2263,7 +2261,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>110</v>
       </c>
@@ -2307,7 +2305,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>110</v>
       </c>
@@ -2350,7 +2348,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -2563,7 +2561,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -2606,7 +2604,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -2692,7 +2690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -2736,7 +2734,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
@@ -2780,7 +2778,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
@@ -2866,7 +2864,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>118</v>
       </c>
@@ -2911,7 +2909,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>118</v>
       </c>
@@ -2953,7 +2951,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>96</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>96</v>
       </c>
@@ -3037,7 +3035,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -3079,7 +3077,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -3121,7 +3119,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -3164,7 +3162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -3208,7 +3206,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>104</v>
       </c>
@@ -3252,7 +3250,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>104</v>
       </c>
@@ -3295,7 +3293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>106</v>
       </c>
@@ -3339,7 +3337,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>123</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>123</v>
       </c>
@@ -3424,7 +3422,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
@@ -3467,7 +3465,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>77</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
@@ -3553,7 +3551,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
@@ -3596,7 +3594,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>82</v>
       </c>
@@ -3640,7 +3638,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>82</v>
       </c>
@@ -3684,7 +3682,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -3728,7 +3726,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>119</v>
       </c>
@@ -3772,7 +3770,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>28</v>
       </c>
@@ -3815,7 +3813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>28</v>
       </c>
@@ -3857,7 +3855,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>92</v>
       </c>
@@ -3900,7 +3898,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
@@ -3942,7 +3940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="56.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="60" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
@@ -3986,7 +3984,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>44</v>
       </c>
@@ -4030,7 +4028,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
@@ -4074,7 +4072,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>121</v>
       </c>
@@ -4116,7 +4114,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>121</v>
       </c>
@@ -4158,7 +4156,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>73</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
@@ -4246,7 +4244,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>32</v>
       </c>
@@ -4288,7 +4286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>32</v>
       </c>
@@ -4330,7 +4328,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>18</v>
       </c>
@@ -4373,7 +4371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
@@ -4415,7 +4413,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>116</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>116</v>
       </c>
@@ -4503,7 +4501,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
@@ -4546,7 +4544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>84</v>
       </c>
@@ -4588,7 +4586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>22</v>
       </c>
@@ -4630,7 +4628,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -4716,7 +4714,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>71</v>
       </c>
@@ -4761,7 +4759,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>94</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>94</v>
       </c>
@@ -4849,7 +4847,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>90</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
@@ -4978,7 +4976,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -5020,7 +5018,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>100</v>
       </c>
@@ -5065,7 +5063,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>100</v>
       </c>
@@ -5107,7 +5105,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>42</v>
       </c>
@@ -5149,7 +5147,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>42</v>
       </c>
@@ -5191,7 +5189,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>65</v>
       </c>
@@ -5234,7 +5232,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>65</v>
       </c>
@@ -5276,7 +5274,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>88</v>
       </c>
@@ -5321,7 +5319,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>88</v>
       </c>
@@ -5363,7 +5361,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>16</v>
       </c>
@@ -5405,7 +5403,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5448,7 +5446,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N111">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N111">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5457,20 +5455,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -5484,7 +5482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -5498,7 +5496,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
@@ -5512,7 +5510,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
@@ -5526,7 +5524,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -5540,7 +5538,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -5554,7 +5552,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -5596,7 +5594,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -5624,7 +5622,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>112</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>112</v>
       </c>
@@ -5652,7 +5650,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
@@ -5666,7 +5664,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>112</v>
       </c>
@@ -5680,7 +5678,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>112</v>
       </c>
@@ -5694,7 +5692,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>112</v>
       </c>
@@ -5708,7 +5706,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>112</v>
       </c>
@@ -5722,7 +5720,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>112</v>
       </c>
@@ -5736,7 +5734,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>112</v>
       </c>
@@ -5750,7 +5748,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>110</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>110</v>
       </c>
@@ -5778,7 +5776,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -5792,7 +5790,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -5806,7 +5804,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -5820,7 +5818,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
@@ -5834,7 +5832,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -5848,7 +5846,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -5862,7 +5860,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -5876,7 +5874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>80</v>
       </c>
@@ -5890,7 +5888,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -5904,7 +5902,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
@@ -5918,7 +5916,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>80</v>
       </c>
@@ -5932,7 +5930,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>104</v>
       </c>
@@ -5946,7 +5944,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>104</v>
       </c>
@@ -5960,7 +5958,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -5988,7 +5986,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -6002,7 +6000,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -6016,7 +6014,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>61</v>
       </c>
@@ -6030,7 +6028,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
@@ -6044,7 +6042,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
@@ -6058,7 +6056,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>61</v>
       </c>
@@ -6072,7 +6070,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
@@ -6086,7 +6084,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>119</v>
       </c>
@@ -6100,7 +6098,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>119</v>
       </c>
@@ -6114,7 +6112,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
@@ -6128,7 +6126,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
@@ -6142,7 +6140,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>92</v>
       </c>
@@ -6156,7 +6154,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>116</v>
       </c>
@@ -6170,7 +6168,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
@@ -6184,7 +6182,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
@@ -6198,7 +6196,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>71</v>
       </c>
@@ -6212,7 +6210,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>94</v>
       </c>
@@ -6226,7 +6224,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>94</v>
       </c>
@@ -6240,7 +6238,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>94</v>
       </c>
@@ -6254,7 +6252,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>100</v>
       </c>
@@ -6282,7 +6280,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>100</v>
       </c>
@@ -6296,7 +6294,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>100</v>
       </c>
@@ -6310,7 +6308,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>100</v>
       </c>
@@ -6324,7 +6322,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>42</v>
       </c>
@@ -6338,7 +6336,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>42</v>
       </c>
@@ -6352,7 +6350,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -6366,7 +6364,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
@@ -6380,7 +6378,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>88</v>
       </c>
@@ -6394,7 +6392,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>16</v>
       </c>
@@ -6408,40 +6406,34 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D68">
         <f>MIN(D2:D67)</f>
         <v>0.01</v>
       </c>
-      <c r="E68" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D69">
         <f>MAX(D2:D67)</f>
         <v>0.83</v>
       </c>
-      <c r="E69" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D70">
         <f>AVERAGE(D2:D67)</f>
         <v>0.31560606060606061</v>
       </c>
-      <c r="E70" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D71">
         <f>MEDIAN(D2:D67)</f>
         <v>0.26</v>
       </c>
-      <c r="E71" t="s">
-        <v>280</v>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <f>_xlfn.STDEV.S(D2:D67)</f>
+        <v>0.21690216715503355</v>
       </c>
     </row>
   </sheetData>
@@ -6450,19 +6442,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C50" activeCellId="3" sqref="C24 C27 C45 C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -6470,7 +6462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -6478,7 +6470,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -6486,7 +6478,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
@@ -6494,7 +6486,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -6502,7 +6494,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -6510,7 +6502,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -6518,7 +6510,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -6526,7 +6518,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>102</v>
       </c>
@@ -6534,7 +6526,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -6542,7 +6534,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -6550,7 +6542,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -6558,7 +6550,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
@@ -6566,7 +6558,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
@@ -6574,7 +6566,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
@@ -6582,7 +6574,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -6590,7 +6582,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -6598,7 +6590,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>108</v>
       </c>
@@ -6606,7 +6598,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -6614,7 +6606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -6622,7 +6614,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
@@ -6630,7 +6622,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -6638,7 +6630,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>118</v>
       </c>
@@ -6646,7 +6638,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>118</v>
       </c>
@@ -6657,7 +6649,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>96</v>
       </c>
@@ -6665,7 +6657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>96</v>
       </c>
@@ -6673,7 +6665,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -6684,7 +6676,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -6692,7 +6684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -6700,7 +6692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>104</v>
       </c>
@@ -6708,7 +6700,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>106</v>
       </c>
@@ -6716,7 +6708,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>123</v>
       </c>
@@ -6724,7 +6716,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -6732,7 +6724,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>77</v>
       </c>
@@ -6740,7 +6732,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -6748,7 +6740,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -6756,7 +6748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -6764,7 +6756,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -6772,7 +6764,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>119</v>
       </c>
@@ -6780,7 +6772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
@@ -6788,7 +6780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
@@ -6796,7 +6788,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>92</v>
       </c>
@@ -6804,7 +6796,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>92</v>
       </c>
@@ -6812,7 +6804,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="56.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="60" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -6820,7 +6812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -6831,7 +6823,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -6839,7 +6831,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>121</v>
       </c>
@@ -6847,7 +6839,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>121</v>
       </c>
@@ -6855,7 +6847,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -6863,7 +6855,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
@@ -6874,7 +6866,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>32</v>
       </c>
@@ -6882,7 +6874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>32</v>
       </c>
@@ -6890,7 +6882,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>18</v>
       </c>
@@ -6898,7 +6890,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>116</v>
       </c>
@@ -6906,7 +6898,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>116</v>
       </c>
@@ -6914,7 +6906,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>84</v>
       </c>
@@ -6922,7 +6914,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>84</v>
       </c>
@@ -6930,7 +6922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
@@ -6938,7 +6930,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>71</v>
       </c>
@@ -6946,7 +6938,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
@@ -6954,7 +6946,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>90</v>
       </c>
@@ -6962,7 +6954,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>114</v>
       </c>
@@ -6970,7 +6962,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>114</v>
       </c>
@@ -6978,7 +6970,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>100</v>
       </c>
@@ -6986,7 +6978,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>100</v>
       </c>
@@ -6994,7 +6986,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>42</v>
       </c>
@@ -7002,7 +6994,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -7010,7 +7002,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>88</v>
       </c>
@@ -7018,7 +7010,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>16</v>
       </c>
@@ -7032,19 +7024,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="41.7109375" customWidth="1"/>
+    <col min="1" max="2" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -7052,7 +7044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -7060,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -7068,7 +7060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -7076,7 +7068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
@@ -7084,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -7092,7 +7084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -7100,7 +7092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>108</v>
       </c>
@@ -7108,7 +7100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
@@ -7116,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>118</v>
       </c>
@@ -7124,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>118</v>
       </c>
@@ -7132,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>96</v>
       </c>
@@ -7140,7 +7132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
@@ -7148,7 +7140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -7156,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -7164,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>106</v>
       </c>
@@ -7172,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
@@ -7180,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
@@ -7188,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -7196,7 +7188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
@@ -7204,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>121</v>
       </c>
@@ -7212,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -7220,7 +7212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
@@ -7228,7 +7220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -7236,7 +7228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
@@ -7244,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>94</v>
       </c>
@@ -7252,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
@@ -7260,7 +7252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
@@ -7268,12 +7260,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>MIN(B2:B29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>MAX(B2:B29)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f>AVERAGE(B2:B29)</f>
+        <v>1.7857142857142858</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f>MEDIAN(B2:B29)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f>_xlfn.STDEV.S(B2:B29)</f>
+        <v>0.95673607402664351</v>
       </c>
     </row>
   </sheetData>
@@ -7282,16 +7304,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B48"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B53" sqref="B49:B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -7299,7 +7321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -7307,7 +7329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -7315,7 +7337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -7323,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -7331,7 +7353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -7339,7 +7361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -7347,7 +7369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
@@ -7355,7 +7377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -7363,7 +7385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -7371,7 +7393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -7379,7 +7401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -7387,7 +7409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
@@ -7395,7 +7417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
@@ -7403,7 +7425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
@@ -7411,7 +7433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -7419,7 +7441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -7427,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>108</v>
       </c>
@@ -7435,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>108</v>
       </c>
@@ -7443,7 +7465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
@@ -7451,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
@@ -7459,7 +7481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>118</v>
       </c>
@@ -7467,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
@@ -7475,7 +7497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -7483,7 +7505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -7491,7 +7513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
@@ -7499,7 +7521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
@@ -7507,7 +7529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
@@ -7515,7 +7537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>98</v>
       </c>
@@ -7523,7 +7545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
@@ -7531,7 +7553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
@@ -7539,7 +7561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
@@ -7547,7 +7569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -7555,7 +7577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -7563,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>121</v>
       </c>
@@ -7571,7 +7593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -7579,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
@@ -7587,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
@@ -7595,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -7603,7 +7625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -7611,7 +7633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>71</v>
       </c>
@@ -7619,7 +7641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>71</v>
       </c>
@@ -7627,7 +7649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>90</v>
       </c>
@@ -7635,7 +7657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>114</v>
       </c>
@@ -7643,7 +7665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -7651,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -7659,7 +7681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>88</v>
       </c>
@@ -7667,12 +7689,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="21">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f>MIN(B2:B48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <f>MAX(B2:B48)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <f>AVERAGE(B2:B48)</f>
+        <v>3.7659574468085109</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f>MEDIAN(B2:B48)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f>_xlfn.STDEV.S(B2:B48)</f>
+        <v>3.0801804433129001</v>
       </c>
     </row>
   </sheetData>
@@ -7681,16 +7733,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B49"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B54" sqref="B50:B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -7698,7 +7754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -7706,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -7714,7 +7770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -7722,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -7730,7 +7786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -7738,7 +7794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -7746,7 +7802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
@@ -7754,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -7762,7 +7818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -7770,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -7778,7 +7834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -7786,7 +7842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
@@ -7794,7 +7850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
@@ -7802,7 +7858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
@@ -7810,7 +7866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -7818,7 +7874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -7826,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>108</v>
       </c>
@@ -7834,7 +7890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>80</v>
       </c>
@@ -7842,7 +7898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
@@ -7850,7 +7906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
@@ -7858,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>118</v>
       </c>
@@ -7866,7 +7922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
@@ -7874,7 +7930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -7882,7 +7938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -7890,7 +7946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
@@ -7898,7 +7954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
@@ -7906,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
@@ -7914,7 +7970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>98</v>
       </c>
@@ -7922,7 +7978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
@@ -7930,7 +7986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
@@ -7938,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
@@ -7946,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -7954,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -7962,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>121</v>
       </c>
@@ -7970,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>121</v>
       </c>
@@ -7978,7 +8034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
@@ -7986,7 +8042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -7994,7 +8050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -8002,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>116</v>
       </c>
@@ -8010,7 +8066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -8018,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
@@ -8026,7 +8082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>90</v>
       </c>
@@ -8034,7 +8090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>114</v>
       </c>
@@ -8042,7 +8098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>100</v>
       </c>
@@ -8050,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -8058,7 +8114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>65</v>
       </c>
@@ -8066,7 +8122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>88</v>
       </c>
@@ -8074,12 +8130,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="21">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <f>MIN(B2:B49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <f>MAX(B2:B49)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f>AVERAGE(B2:B49)</f>
+        <v>3.7708333333333335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f>MEDIAN(B2:B49)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f>_xlfn.STDEV.S(B2:B49)</f>
+        <v>3.1096252995411033</v>
       </c>
     </row>
   </sheetData>
@@ -8088,20 +8174,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -8109,7 +8195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -8117,7 +8203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -8125,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -8133,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -8141,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -8149,7 +8235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -8157,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -8165,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -8173,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
@@ -8181,7 +8267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>112</v>
       </c>
@@ -8189,7 +8275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>110</v>
       </c>
@@ -8197,7 +8283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -8205,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -8213,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>108</v>
       </c>
@@ -8221,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>78</v>
       </c>
@@ -8229,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>118</v>
       </c>
@@ -8237,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>96</v>
       </c>
@@ -8245,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -8253,7 +8339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -8261,7 +8347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>106</v>
       </c>
@@ -8269,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>123</v>
       </c>
@@ -8277,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>77</v>
       </c>
@@ -8285,7 +8371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -8293,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
@@ -8301,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -8309,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>92</v>
       </c>
@@ -8317,7 +8403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>121</v>
       </c>
@@ -8325,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>121</v>
       </c>
@@ -8333,7 +8419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -8341,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
@@ -8349,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>116</v>
       </c>
@@ -8357,7 +8443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>84</v>
       </c>
@@ -8365,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -8373,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>94</v>
       </c>
@@ -8381,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>90</v>
       </c>
@@ -8389,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>90</v>
       </c>
@@ -8397,7 +8483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>114</v>
       </c>
@@ -8405,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
@@ -8413,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
@@ -8421,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>88</v>
       </c>
@@ -8429,12 +8515,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <f>MIN(B2:B42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <f>MAX(B2:B42)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f>AVERAGE(B2:B42)</f>
+        <v>1.3170731707317074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f>MEDIAN(B2:B42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f>_xlfn.STDEV.S(B2:B42)</f>
+        <v>2.2851589046524086</v>
       </c>
     </row>
   </sheetData>
@@ -8443,19 +8559,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B54"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -8463,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -8471,7 +8587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -8479,7 +8595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -8487,7 +8603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -8495,7 +8611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -8503,7 +8619,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -8511,7 +8627,7 @@
         <v>19.588235294117649</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -8519,7 +8635,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -8527,7 +8643,7 @@
         <v>49.607142857142854</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -8535,7 +8651,7 @@
         <v>8.1558441558441555</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -8543,7 +8659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>112</v>
       </c>
@@ -8551,7 +8667,7 @@
         <v>2.9384615384615387</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>110</v>
       </c>
@@ -8559,7 +8675,7 @@
         <v>96.65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -8567,7 +8683,7 @@
         <v>62.43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -8575,7 +8691,7 @@
         <v>16.911764705882351</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>108</v>
       </c>
@@ -8583,7 +8699,7 @@
         <v>7.9130434782608692</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -8591,7 +8707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -8599,7 +8715,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -8607,7 +8723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>118</v>
       </c>
@@ -8615,7 +8731,7 @@
         <v>129.71428571428572</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -8623,7 +8739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -8631,7 +8747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -8639,7 +8755,7 @@
         <v>131.39393939393941</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -8647,7 +8763,7 @@
         <v>19.475000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>106</v>
       </c>
@@ -8655,7 +8771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
@@ -8663,7 +8779,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>98</v>
       </c>
@@ -8671,7 +8787,7 @@
         <v>24.694444444444443</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>77</v>
       </c>
@@ -8679,7 +8795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -8687,7 +8803,7 @@
         <v>4.094736842105263</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
@@ -8695,7 +8811,7 @@
         <v>40.19</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
@@ -8703,7 +8819,7 @@
         <v>87.32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
@@ -8711,7 +8827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
@@ -8719,7 +8835,7 @@
         <v>8.3168539325842694</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -8727,7 +8843,7 @@
         <v>3935.063492063492</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
@@ -8735,7 +8851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -8743,7 +8859,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -8751,7 +8867,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -8759,7 +8875,7 @@
         <v>233.33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>121</v>
       </c>
@@ -8767,7 +8883,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
@@ -8775,7 +8891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
@@ -8783,7 +8899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>18</v>
       </c>
@@ -8791,7 +8907,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>116</v>
       </c>
@@ -8799,7 +8915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -8807,7 +8923,7 @@
         <v>906.375</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -8815,7 +8931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -8823,7 +8939,7 @@
         <v>4.5986394557823127</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>94</v>
       </c>
@@ -8831,7 +8947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>90</v>
       </c>
@@ -8839,7 +8955,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>114</v>
       </c>
@@ -8847,7 +8963,7 @@
         <v>2.7888999008919724</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
@@ -8855,7 +8971,7 @@
         <v>7.9189189189189193</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>42</v>
       </c>
@@ -8863,7 +8979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>65</v>
       </c>
@@ -8871,7 +8987,7 @@
         <v>397.89</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>88</v>
       </c>
@@ -8879,7 +8995,7 @@
         <v>25.425925925925927</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>16</v>
       </c>
@@ -8887,28 +9003,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55">
         <f>MIN(B2:B54)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56">
         <f>MAX(B2:B54)</f>
         <v>3935.063492063492</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57">
         <f>AVERAGE(B2:B54)</f>
         <v>136.19922590577494</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58">
         <f>MEDIAN(B2:B54)</f>
         <v>16.166666666666664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <f>_xlfn.STDEV.S(B2:B54)</f>
+        <v>565.82865315683296</v>
       </c>
     </row>
   </sheetData>
@@ -8917,19 +9039,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B57"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -8937,7 +9059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -8945,7 +9067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -8953,7 +9075,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -8961,7 +9083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -8969,7 +9091,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -8977,7 +9099,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
@@ -8985,7 +9107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
@@ -8993,7 +9115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -9001,7 +9123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -9009,7 +9131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -9017,7 +9139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
@@ -9025,7 +9147,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>112</v>
       </c>
@@ -9033,7 +9155,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>110</v>
       </c>
@@ -9041,7 +9163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -9049,7 +9171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -9057,7 +9179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
@@ -9065,7 +9187,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -9073,7 +9195,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>80</v>
       </c>
@@ -9081,7 +9203,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>78</v>
       </c>
@@ -9089,7 +9211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>118</v>
       </c>
@@ -9097,7 +9219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>96</v>
       </c>
@@ -9105,7 +9227,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -9113,7 +9235,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -9121,7 +9243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>104</v>
       </c>
@@ -9129,7 +9251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>106</v>
       </c>
@@ -9137,7 +9259,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>123</v>
       </c>
@@ -9145,7 +9267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>98</v>
       </c>
@@ -9153,7 +9275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>77</v>
       </c>
@@ -9161,7 +9283,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9169,7 +9291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
@@ -9177,7 +9299,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
@@ -9185,7 +9307,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>119</v>
       </c>
@@ -9193,7 +9315,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>119</v>
       </c>
@@ -9201,7 +9323,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
@@ -9209,7 +9331,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>92</v>
       </c>
@@ -9217,7 +9339,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -9225,7 +9347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -9233,7 +9355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>121</v>
       </c>
@@ -9241,7 +9363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
@@ -9249,7 +9371,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
@@ -9257,7 +9379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>18</v>
       </c>
@@ -9265,7 +9387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>116</v>
       </c>
@@ -9273,7 +9395,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -9281,7 +9403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -9289,7 +9411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
@@ -9297,7 +9419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -9305,7 +9427,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>94</v>
       </c>
@@ -9313,7 +9435,7 @@
         <v>49968</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
@@ -9321,7 +9443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>114</v>
       </c>
@@ -9329,7 +9451,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
@@ -9337,7 +9459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
@@ -9345,7 +9467,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
@@ -9353,7 +9475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>42</v>
       </c>
@@ -9361,7 +9483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -9369,7 +9491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>88</v>
       </c>
@@ -9377,12 +9499,42 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B57" s="4">
         <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <f>MIN(B2:B57)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <f>MAX(B2:B57)</f>
+        <v>49968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f>AVERAGE(B2:B57)</f>
+        <v>1056.9464285714287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <f>MEDIAN(B2:B57)</f>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f>_xlfn.STDEV.S(B2:B57)</f>
+        <v>6659.5286877175076</v>
       </c>
     </row>
   </sheetData>
@@ -9391,19 +9543,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" activeCellId="2" sqref="B26 B37 B40"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -9411,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
@@ -9419,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -9427,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -9435,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
@@ -9443,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
@@ -9451,7 +9603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -9459,7 +9611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -9467,7 +9619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -9475,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -9483,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -9491,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>112</v>
       </c>
@@ -9499,7 +9651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>110</v>
       </c>
@@ -9507,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -9515,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -9523,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>108</v>
       </c>
@@ -9531,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -9539,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -9547,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -9555,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>118</v>
       </c>
@@ -9563,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -9571,7 +9723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -9579,7 +9731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -9587,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -9595,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>106</v>
       </c>
@@ -9603,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
@@ -9611,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>98</v>
       </c>
@@ -9619,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>77</v>
       </c>
@@ -9627,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -9635,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
@@ -9643,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>119</v>
       </c>
@@ -9651,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
@@ -9663,7 +9815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -9671,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
@@ -9679,7 +9831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -9687,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>121</v>
       </c>
@@ -9695,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -9703,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>32</v>
       </c>
@@ -9711,7 +9863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -9719,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>116</v>
       </c>
@@ -9727,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
@@ -9735,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
@@ -9743,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>71</v>
       </c>
@@ -9751,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>94</v>
       </c>
@@ -9759,7 +9911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
@@ -9767,7 +9919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>114</v>
       </c>
@@ -9775,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -9783,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -9791,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
@@ -9799,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>88</v>
       </c>
@@ -9807,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
